--- a/special-topics/data-handling/random-data/coin-flip-simulation-after.xlsx
+++ b/special-topics/data-handling/random-data/coin-flip-simulation-after.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectLocal\gdpt-2018\special-topics\data-handling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectLocal\gdpt-2018\special-topics\data-handling\random-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BBFC2F-E9F7-454A-BCA3-6B6CC6B84973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA7AC9A-8713-4928-9887-45ACE5F92B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="21600" windowHeight="12670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Lần</t>
   </si>
@@ -97,17 +97,26 @@
     <t>Đồng xu</t>
   </si>
   <si>
-    <t>Yêu cầu: Mô phỏng 20 lần tung đồng xu</t>
+    <t>Dữ liệu ngẫu nhiên</t>
   </si>
   <si>
-    <t>Thử thách: Chỉnh sửa công thức sao cho xác suất mặt ngửa là 60% và mặt sấp" là 40%.</t>
+    <t>Bài 2:</t>
+  </si>
+  <si>
+    <t>Bài 1:</t>
+  </si>
+  <si>
+    <t>Mô phỏng 20 lần tung đồng xu</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa công thức trong bài 1 sao cho xác suất mặt ngửa là 60% và mặt sấp" là 40%.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,16 +136,41 @@
       <name val="Aptos"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF107C41"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -144,14 +178,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -180,13 +235,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>418042</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>89960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -770,7 +825,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
@@ -783,489 +838,506 @@
     <col min="5" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="G2" s="1" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B7" s="6">
         <f ca="1">RAND()</f>
-        <v>0.50224837257440569</v>
-      </c>
-      <c r="C5" s="1" t="str">
-        <f ca="1">IF(B5&gt;=0.5,"Ngửa","Sấp")</f>
+        <v>0.44312906241805183</v>
+      </c>
+      <c r="C7" s="6" t="str">
+        <f ca="1">IF(B7&gt;=0.5,"Ngửa","Sấp")</f>
+        <v>Sấp</v>
+      </c>
+      <c r="D7" s="6" t="e" vm="1">
+        <f ca="1">IF(C7="Ngửa",_xlfn.IMAGE($H$3),_xlfn.IMAGE($H$4))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="6">
+        <f t="shared" ref="B8:B26" ca="1" si="0">RAND()</f>
+        <v>0.39909239305782862</v>
+      </c>
+      <c r="C8" s="6" t="str">
+        <f t="shared" ref="C8:C26" ca="1" si="1">IF(B8&gt;=0.5,"Sấp","Ngửa")</f>
         <v>Ngửa</v>
       </c>
-      <c r="D5" s="1" t="e" vm="1">
-        <f ca="1">IF(C5="Ngửa",_xlfn.IMAGE($H$1),_xlfn.IMAGE($H$2))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="D8" s="6" t="e" vm="2">
+        <f t="shared" ref="D8:D26" ca="1" si="2">IF(C8="Ngửa",_xlfn.IMAGE($H$3),_xlfn.IMAGE($H$4))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.41334823749382332</v>
+      </c>
+      <c r="C9" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ngửa</v>
+      </c>
+      <c r="D9" s="6" t="e" vm="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
+      <c r="B10" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.40879067929230095</v>
+      </c>
+      <c r="C10" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ngửa</v>
+      </c>
+      <c r="D10" s="6" t="e" vm="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.10048516886344272</v>
+      </c>
+      <c r="C11" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ngửa</v>
+      </c>
+      <c r="D11" s="6" t="e" vm="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>6</v>
+      </c>
+      <c r="B12" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.88275258967758041</v>
+      </c>
+      <c r="C12" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Sấp</v>
+      </c>
+      <c r="D12" s="6" t="e" vm="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>7</v>
+      </c>
+      <c r="B13" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.25284940926328781</v>
+      </c>
+      <c r="C13" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ngửa</v>
+      </c>
+      <c r="D13" s="6" t="e" vm="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.13612950598720841</v>
+      </c>
+      <c r="C14" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ngửa</v>
+      </c>
+      <c r="D14" s="6" t="e" vm="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>9</v>
+      </c>
+      <c r="B15" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.1093609607855297</v>
+      </c>
+      <c r="C15" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ngửa</v>
+      </c>
+      <c r="D15" s="6" t="e" vm="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>10</v>
+      </c>
+      <c r="B16" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.69812896075388597</v>
+      </c>
+      <c r="C16" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Sấp</v>
+      </c>
+      <c r="D16" s="6" t="e" vm="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>11</v>
+      </c>
+      <c r="B17" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.87173556353043313</v>
+      </c>
+      <c r="C17" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Sấp</v>
+      </c>
+      <c r="D17" s="6" t="e" vm="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.11635680353706579</v>
+      </c>
+      <c r="C18" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ngửa</v>
+      </c>
+      <c r="D18" s="6" t="e" vm="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>13</v>
+      </c>
+      <c r="B19" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.53862631470025313</v>
+      </c>
+      <c r="C19" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Sấp</v>
+      </c>
+      <c r="D19" s="6" t="e" vm="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>14</v>
+      </c>
+      <c r="B20" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.63528400900655924</v>
+      </c>
+      <c r="C20" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Sấp</v>
+      </c>
+      <c r="D20" s="6" t="e" vm="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>15</v>
+      </c>
+      <c r="B21" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.69894531389441339</v>
+      </c>
+      <c r="C21" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Sấp</v>
+      </c>
+      <c r="D21" s="6" t="e" vm="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>16</v>
+      </c>
+      <c r="B22" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.61040231334772832</v>
+      </c>
+      <c r="C22" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Sấp</v>
+      </c>
+      <c r="D22" s="6" t="e" vm="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>17</v>
+      </c>
+      <c r="B23" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.31280688043506244</v>
+      </c>
+      <c r="C23" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ngửa</v>
+      </c>
+      <c r="D23" s="6" t="e" vm="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>18</v>
+      </c>
+      <c r="B24" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.47900383019762793</v>
+      </c>
+      <c r="C24" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ngửa</v>
+      </c>
+      <c r="D24" s="6" t="e" vm="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>19</v>
+      </c>
+      <c r="B25" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.91461802740816533</v>
+      </c>
+      <c r="C25" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Sấp</v>
+      </c>
+      <c r="D25" s="6" t="e" vm="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>20</v>
+      </c>
+      <c r="B26" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.8374718195062321E-2</v>
+      </c>
+      <c r="C26" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ngửa</v>
+      </c>
+      <c r="D26" s="6" t="e" vm="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1">
-        <f t="shared" ref="B6:B24" ca="1" si="0">RAND()</f>
-        <v>0.83455455748588725</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <f t="shared" ref="C6:C24" ca="1" si="1">IF(B6&gt;=0.5,"Sấp","Ngửa")</f>
+      <c r="D31" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" s="6">
+        <f ca="1">RAND()</f>
+        <v>0.515067021583136</v>
+      </c>
+      <c r="C32" s="6" t="str">
+        <f ca="1">IF(B32&lt;0.6,"Ngửa","Sấp")</f>
+        <v>Ngửa</v>
+      </c>
+      <c r="D32" s="6" t="e" vm="2">
+        <f ca="1">IF(C32="Ngửa",_xlfn.IMAGE($H$3),_xlfn.IMAGE($H$4))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="1">
+        <v>2</v>
+      </c>
+      <c r="B33" s="6">
+        <f t="shared" ref="B33:B36" ca="1" si="3">RAND()</f>
+        <v>0.90775555926423679</v>
+      </c>
+      <c r="C33" s="6" t="str">
+        <f t="shared" ref="C33:C36" ca="1" si="4">IF(B33&lt;0.6,"Ngửa","Sấp")</f>
         <v>Sấp</v>
       </c>
-      <c r="D6" s="1" t="e" vm="2">
-        <f t="shared" ref="D6:D24" ca="1" si="2">IF(C6="Ngửa",_xlfn.IMAGE($H$1),_xlfn.IMAGE($H$2))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+      <c r="D33" s="6" t="e" vm="1">
+        <f t="shared" ref="D33:D36" ca="1" si="5">IF(C33="Ngửa",_xlfn.IMAGE($H$3),_xlfn.IMAGE($H$4))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.36932366003017669</v>
-      </c>
-      <c r="C7" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="B34" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.2525719106157545E-2</v>
+      </c>
+      <c r="C34" s="6" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>Ngửa</v>
       </c>
-      <c r="D7" s="1" t="e" vm="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="D34" s="6" t="e" vm="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.93498987476373763</v>
-      </c>
-      <c r="C8" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Sấp</v>
-      </c>
-      <c r="D8" s="1" t="e" vm="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.50535441958911331</v>
-      </c>
-      <c r="C9" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Sấp</v>
-      </c>
-      <c r="D9" s="1" t="e" vm="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.68955145548341024</v>
-      </c>
-      <c r="C10" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Sấp</v>
-      </c>
-      <c r="D10" s="1" t="e" vm="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.16917806769922772</v>
-      </c>
-      <c r="C11" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Ngửa</v>
-      </c>
-      <c r="D11" s="1" t="e" vm="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.91097499458610232</v>
-      </c>
-      <c r="C12" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Sấp</v>
-      </c>
-      <c r="D12" s="1" t="e" vm="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.9435891800652154E-2</v>
-      </c>
-      <c r="C13" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Ngửa</v>
-      </c>
-      <c r="D13" s="1" t="e" vm="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.94751396671086152</v>
-      </c>
-      <c r="C14" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Sấp</v>
-      </c>
-      <c r="D14" s="1" t="e" vm="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.95955227434693879</v>
-      </c>
-      <c r="C15" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Sấp</v>
-      </c>
-      <c r="D15" s="1" t="e" vm="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.55206401150418893</v>
-      </c>
-      <c r="C16" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Sấp</v>
-      </c>
-      <c r="D16" s="1" t="e" vm="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>13</v>
-      </c>
-      <c r="B17" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.71845499126382739</v>
-      </c>
-      <c r="C17" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Sấp</v>
-      </c>
-      <c r="D17" s="1" t="e" vm="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>14</v>
-      </c>
-      <c r="B18" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.55767414954071159</v>
-      </c>
-      <c r="C18" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Sấp</v>
-      </c>
-      <c r="D18" s="1" t="e" vm="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>15</v>
-      </c>
-      <c r="B19" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.4289491619192618</v>
-      </c>
-      <c r="C19" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Ngửa</v>
-      </c>
-      <c r="D19" s="1" t="e" vm="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>16</v>
-      </c>
-      <c r="B20" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.43097604988567284</v>
-      </c>
-      <c r="C20" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Ngửa</v>
-      </c>
-      <c r="D20" s="1" t="e" vm="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>17</v>
-      </c>
-      <c r="B21" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.18166434407675947</v>
-      </c>
-      <c r="C21" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Ngửa</v>
-      </c>
-      <c r="D21" s="1" t="e" vm="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>18</v>
-      </c>
-      <c r="B22" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.76392238223936693</v>
-      </c>
-      <c r="C22" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Sấp</v>
-      </c>
-      <c r="D22" s="1" t="e" vm="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>19</v>
-      </c>
-      <c r="B23" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.81453223751732029</v>
-      </c>
-      <c r="C23" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Sấp</v>
-      </c>
-      <c r="D23" s="1" t="e" vm="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>20</v>
-      </c>
-      <c r="B24" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.75255325113432858</v>
-      </c>
-      <c r="C24" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Sấp</v>
-      </c>
-      <c r="D24" s="1" t="e" vm="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>1</v>
-      </c>
-      <c r="B28" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.30924971287170566</v>
-      </c>
-      <c r="C28" s="1" t="str">
-        <f ca="1">IF(B28&lt;0.6,"Ngửa","Sấp")</f>
-        <v>Ngửa</v>
-      </c>
-      <c r="D28" s="1" t="e" vm="1">
-        <f ca="1">IF(C28="Ngửa",_xlfn.IMAGE($H$1),_xlfn.IMAGE($H$2))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>2</v>
-      </c>
-      <c r="B29" s="1">
-        <f t="shared" ref="B29:B32" ca="1" si="3">RAND()</f>
-        <v>0.45767619508270951</v>
-      </c>
-      <c r="C29" s="1" t="str">
-        <f t="shared" ref="C29:C32" ca="1" si="4">IF(B29&lt;0.6,"Ngửa","Sấp")</f>
-        <v>Ngửa</v>
-      </c>
-      <c r="D29" s="1" t="e" vm="1">
-        <f t="shared" ref="D29:D32" ca="1" si="5">IF(C29="Ngửa",_xlfn.IMAGE($H$1),_xlfn.IMAGE($H$2))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>3</v>
-      </c>
-      <c r="B30" s="1">
+      <c r="B35" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>0.74910878195094244</v>
-      </c>
-      <c r="C30" s="1" t="str">
+        <v>0.65666623621428222</v>
+      </c>
+      <c r="C35" s="6" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>Sấp</v>
       </c>
-      <c r="D30" s="1" t="e" vm="2">
+      <c r="D35" s="6" t="e" vm="1">
         <f t="shared" ca="1" si="5"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1">
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="1">
+        <v>5</v>
+      </c>
+      <c r="B36" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>0.29610556513928821</v>
-      </c>
-      <c r="C31" s="1" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Ngửa</v>
-      </c>
-      <c r="D31" s="1" t="e" vm="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>5</v>
-      </c>
-      <c r="B32" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.6031596035710608</v>
-      </c>
-      <c r="C32" s="1" t="str">
+        <v>0.64703035190019142</v>
+      </c>
+      <c r="C36" s="6" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>Sấp</v>
       </c>
-      <c r="D32" s="1" t="e" vm="2">
+      <c r="D36" s="6" t="e" vm="1">
         <f t="shared" ca="1" si="5"/>
         <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="U0f1vIyq0kGS2Ipew24FytPTx+akGMg2RfBdkqi20Rj0Glf+XCgT1/wxQANy9qkYqfIUe0uGBBhrBGbOfHENVA==" saltValue="jNxXEIuqRMuAt/GOKOrh+A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>